--- a/C9300X-48TX-E.xlsx
+++ b/C9300X-48TX-E.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183EC829-1A48-4216-BC98-F9B0B17B759A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D4705-BBC5-4060-B91A-B2C823ED9652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8" windowWidth="14400" windowHeight="8542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C9300X-24Y-E" sheetId="1" r:id="rId1"/>
+    <sheet name="C9300X-48TX-E" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,16 +36,7 @@
     <t>Khả năng chuyển mạch Switching capacity</t>
   </si>
   <si>
-    <t>2000 Gbps</t>
-  </si>
-  <si>
-    <t>Hỗ trợ stacking lên tới 3000 Gbps</t>
-  </si>
-  <si>
     <t>Khả năng chuyển gói Forwarding rate</t>
-  </si>
-  <si>
-    <t>1488 Mpps</t>
   </si>
   <si>
     <t>Bộ nhớ DRAM</t>
@@ -165,10 +156,19 @@
     <t>Số Jumbo frames</t>
   </si>
   <si>
-    <t>1.73 x 17.5 x 20.56 cm</t>
-  </si>
-  <si>
-    <t>6.62 Kg</t>
+    <t>1309 Mpps</t>
+  </si>
+  <si>
+    <t>1760 Gbps</t>
+  </si>
+  <si>
+    <t>Hỗ trợ stacking lên tới 2760 Gbps</t>
+  </si>
+  <si>
+    <t>6.62 kg</t>
+  </si>
+  <si>
+    <t>4.4 x 44.5 x 52.2 cm</t>
   </si>
 </sst>
 </file>
@@ -573,17 +573,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.53125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -591,226 +589,226 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>4094</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>32000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>19500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" ht="83.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
